--- a/Experiments/Activation/33MeVTa/CorrectionData/Cave01FoilDimensions.xlsx
+++ b/Experiments/Activation/33MeVTa/CorrectionData/Cave01FoilDimensions.xlsx
@@ -393,7 +393,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,26 +450,26 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>49.76</v>
+        <v>49.95</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D2">
-        <v>1.036</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>2E-3</v>
       </c>
       <c r="F2">
-        <v>13.000999999999999</v>
+        <v>13.217000000000001</v>
       </c>
       <c r="G2">
         <v>2E-3</v>
       </c>
       <c r="H2">
         <f>F2/((B2/20)^2*3.1415*D2/10)</f>
-        <v>6.453260352623329</v>
+        <v>6.7450447003961997</v>
       </c>
       <c r="J2">
         <v>0.98850000000000005</v>
@@ -477,62 +477,62 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>50.16</v>
+        <v>49.95</v>
       </c>
       <c r="C3">
         <v>0.05</v>
       </c>
       <c r="D3">
-        <v>1.0249999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="E3">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F3">
-        <v>14.44</v>
+        <v>17.335000000000001</v>
       </c>
       <c r="G3">
         <v>2E-3</v>
       </c>
       <c r="H3">
         <f>F3/((B3/20)^2*3.1415*D3/10)</f>
-        <v>7.1293707413840117</v>
+        <v>8.5063343451446656</v>
       </c>
       <c r="J3">
-        <v>99.998999999999995</v>
+        <v>98.98</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>49.98</v>
+        <v>49.8</v>
       </c>
       <c r="C4">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="E4">
-        <v>3.0000000000000001E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="F4">
-        <v>17.309999999999999</v>
+        <v>14.461</v>
       </c>
       <c r="G4">
         <v>2E-3</v>
       </c>
       <c r="H4">
         <f>F4/((B4/20)^2*3.1415*D4/10)</f>
-        <v>8.8232277896462605</v>
+        <v>7.0708767749056962</v>
       </c>
       <c r="J4">
-        <v>98.98</v>
+        <v>99.998999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -543,10 +543,10 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="E5">
-        <v>1E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="F5">
-        <v>0.30599999999999999</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="G5">
         <v>2E-3</v>
@@ -559,6 +559,15 @@
       <c r="A6" t="s">
         <v>6</v>
       </c>
+      <c r="D6">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.01</v>
+      </c>
+      <c r="F6">
+        <v>1.5589999999999999</v>
+      </c>
       <c r="K6" t="s">
         <v>17</v>
       </c>
@@ -568,26 +577,26 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>49.97</v>
+        <v>50.05</v>
       </c>
       <c r="C7">
         <v>0.1</v>
       </c>
       <c r="D7">
-        <v>1.0129999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="E7">
-        <v>3.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F7">
-        <v>5.3179999999999996</v>
+        <v>5.3239999999999998</v>
       </c>
       <c r="G7">
         <v>2E-3</v>
       </c>
       <c r="H7">
         <f>F7/((B7/20)^2*3.1415*D7/10)</f>
-        <v>2.676967607277954</v>
+        <v>2.6530940075363465</v>
       </c>
       <c r="J7">
         <v>99.998999999999995</v>
@@ -598,10 +607,10 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>13.25</v>
+        <v>13.5</v>
       </c>
       <c r="C8">
-        <v>5.0000000000000001E-3</v>
+        <v>0.2</v>
       </c>
       <c r="D8">
         <v>1.1299999999999999</v>
@@ -610,14 +619,14 @@
         <v>0.01</v>
       </c>
       <c r="F8">
-        <v>0.35399999999999998</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="G8">
         <v>2E-3</v>
       </c>
       <c r="H8">
         <f>F8/((B8/20)^2*3.1415*D8/10)</f>
-        <v>2.2720400851250666</v>
+        <v>2.244313758378885</v>
       </c>
       <c r="K8" t="s">
         <v>16</v>
